--- a/Vistas anteriores/Annual_V2_octnow.xlsx
+++ b/Vistas anteriores/Annual_V2_octnow.xlsx
@@ -31003,8 +31003,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="C3:AI60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
